--- a/WorkBot/refactor/data/orders/FingerLakes Farms/FingerLakes Farms_Triphammer_2025-08-07.xlsx
+++ b/WorkBot/refactor/data/orders/FingerLakes Farms/FingerLakes Farms_Triphammer_2025-08-07.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>14.00</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>9.25</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>118.75</t>
+          <t>71.25</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>13.00</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>13.00</t>
         </is>
       </c>
     </row>
